--- a/VersionRecords/Version 5.3.6.2 20170330/版本Bug和特性计划及评审表v5.3.6.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.6.2 20170330/版本Bug和特性计划及评审表v5.3.6.2_磐石组.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.3.6.2 20170330\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.3.6.2 20170330\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="13650" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27588" windowHeight="13656" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -296,6 +296,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -303,6 +304,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,12 +312,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -323,6 +327,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -330,12 +335,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -343,12 +350,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,34 +365,40 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -391,12 +406,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -404,12 +421,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,12 +436,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -435,12 +456,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1372,36 +1395,36 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="55" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="56" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="55" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="56" customWidth="1"/>
     <col min="5" max="5" width="15" style="55" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="56" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="56" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="55" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="55" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="56" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="56" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="55" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="55" customWidth="1"/>
     <col min="16" max="16" width="10" style="56" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="56" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="56" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="56" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="56" customWidth="1"/>
     <col min="19" max="20" width="12" style="57" customWidth="1"/>
     <col min="21" max="21" width="17" style="57" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="57" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="56" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" style="57" customWidth="1"/>
+    <col min="23" max="23" width="41.88671875" style="56" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="53" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="53" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>1</v>
       </c>
@@ -1534,7 +1557,7 @@
       <c r="W2" s="77"/>
       <c r="X2" s="78"/>
     </row>
-    <row r="3" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -1560,7 +1583,7 @@
       <c r="W3" s="79"/>
       <c r="X3" s="78"/>
     </row>
-    <row r="4" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -1586,7 +1609,7 @@
       <c r="W4" s="79"/>
       <c r="X4" s="78"/>
     </row>
-    <row r="5" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -1612,7 +1635,7 @@
       <c r="W5" s="79"/>
       <c r="X5" s="78"/>
     </row>
-    <row r="6" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -1638,7 +1661,7 @@
       <c r="W6" s="79"/>
       <c r="X6" s="78"/>
     </row>
-    <row r="7" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -1664,7 +1687,7 @@
       <c r="W7" s="79"/>
       <c r="X7" s="78"/>
     </row>
-    <row r="8" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -1690,7 +1713,7 @@
       <c r="W8" s="79"/>
       <c r="X8" s="78"/>
     </row>
-    <row r="9" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -1716,7 +1739,7 @@
       <c r="W9" s="79"/>
       <c r="X9" s="78"/>
     </row>
-    <row r="10" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -1742,7 +1765,7 @@
       <c r="W10" s="79"/>
       <c r="X10" s="78"/>
     </row>
-    <row r="11" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -1768,7 +1791,7 @@
       <c r="W11" s="79"/>
       <c r="X11" s="78"/>
     </row>
-    <row r="12" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -1794,7 +1817,7 @@
       <c r="W12" s="79"/>
       <c r="X12" s="78"/>
     </row>
-    <row r="13" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -1820,7 +1843,7 @@
       <c r="W13" s="79"/>
       <c r="X13" s="78"/>
     </row>
-    <row r="14" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -1846,7 +1869,7 @@
       <c r="W14" s="79"/>
       <c r="X14" s="78"/>
     </row>
-    <row r="15" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -1872,7 +1895,7 @@
       <c r="W15" s="79"/>
       <c r="X15" s="78"/>
     </row>
-    <row r="16" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -1898,7 +1921,7 @@
       <c r="W16" s="79"/>
       <c r="X16" s="78"/>
     </row>
-    <row r="17" spans="1:24" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -1924,7 +1947,7 @@
       <c r="W17" s="81"/>
       <c r="X17" s="78"/>
     </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -1949,7 +1972,7 @@
       <c r="V18" s="67"/>
       <c r="W18" s="68"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -1974,7 +1997,7 @@
       <c r="V19" s="67"/>
       <c r="W19" s="68"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -1999,7 +2022,7 @@
       <c r="V20" s="67"/>
       <c r="W20" s="68"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -2024,7 +2047,7 @@
       <c r="V21" s="67"/>
       <c r="W21" s="79"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -2049,7 +2072,7 @@
       <c r="V22" s="67"/>
       <c r="W22" s="79"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -2074,7 +2097,7 @@
       <c r="V23" s="67"/>
       <c r="W23" s="79"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -2099,7 +2122,7 @@
       <c r="V24" s="82"/>
       <c r="W24" s="83"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -2124,7 +2147,7 @@
       <c r="V25" s="84"/>
       <c r="W25" s="83"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -2149,7 +2172,7 @@
       <c r="V26" s="85"/>
       <c r="W26" s="83"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
@@ -2174,7 +2197,7 @@
       <c r="V27" s="84"/>
       <c r="W27" s="83"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -2199,7 +2222,7 @@
       <c r="V28" s="84"/>
       <c r="W28" s="83"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -2224,7 +2247,7 @@
       <c r="V29" s="80"/>
       <c r="W29" s="70"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -2249,7 +2272,7 @@
       <c r="V30" s="67"/>
       <c r="W30" s="79"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -2274,7 +2297,7 @@
       <c r="V31" s="67"/>
       <c r="W31" s="79"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -2299,7 +2322,7 @@
       <c r="V32" s="67"/>
       <c r="W32" s="79"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -2324,7 +2347,7 @@
       <c r="V33" s="84"/>
       <c r="W33" s="83"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -2349,7 +2372,7 @@
       <c r="V34" s="67"/>
       <c r="W34" s="77"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -2374,7 +2397,7 @@
       <c r="V35" s="67"/>
       <c r="W35" s="79"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -2399,7 +2422,7 @@
       <c r="V36" s="67"/>
       <c r="W36" s="79"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -2424,7 +2447,7 @@
       <c r="V37" s="67"/>
       <c r="W37" s="79"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -2449,7 +2472,7 @@
       <c r="V38" s="67"/>
       <c r="W38" s="79"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -2474,7 +2497,7 @@
       <c r="V39" s="67"/>
       <c r="W39" s="79"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -2499,7 +2522,7 @@
       <c r="V40" s="67"/>
       <c r="W40" s="79"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -2524,7 +2547,7 @@
       <c r="V41" s="67"/>
       <c r="W41" s="79"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -2549,7 +2572,7 @@
       <c r="V42" s="67"/>
       <c r="W42" s="79"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -2574,7 +2597,7 @@
       <c r="V43" s="67"/>
       <c r="W43" s="79"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
@@ -2599,7 +2622,7 @@
       <c r="V44" s="67"/>
       <c r="W44" s="79"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -2624,7 +2647,7 @@
       <c r="V45" s="80"/>
       <c r="W45" s="79"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -2649,7 +2672,7 @@
       <c r="V46" s="80"/>
       <c r="W46" s="79"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -2674,7 +2697,7 @@
       <c r="V47" s="67"/>
       <c r="W47" s="68"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -2699,7 +2722,7 @@
       <c r="V48" s="67"/>
       <c r="W48" s="68"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -2724,7 +2747,7 @@
       <c r="V49" s="67"/>
       <c r="W49" s="68"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -2749,7 +2772,7 @@
       <c r="V50" s="67"/>
       <c r="W50" s="68"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -2774,7 +2797,7 @@
       <c r="V51" s="67"/>
       <c r="W51" s="68"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -2799,7 +2822,7 @@
       <c r="V52" s="67"/>
       <c r="W52" s="68"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -2824,7 +2847,7 @@
       <c r="V53" s="67"/>
       <c r="W53" s="68"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="67"/>
       <c r="B54" s="67"/>
       <c r="C54" s="67"/>
@@ -2849,7 +2872,7 @@
       <c r="V54" s="67"/>
       <c r="W54" s="68"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
       <c r="B55" s="67"/>
       <c r="C55" s="67"/>
@@ -2874,7 +2897,7 @@
       <c r="V55" s="67"/>
       <c r="W55" s="68"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="67"/>
       <c r="B56" s="67"/>
       <c r="C56" s="67"/>
@@ -2899,7 +2922,7 @@
       <c r="V56" s="67"/>
       <c r="W56" s="68"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="67"/>
       <c r="B57" s="67"/>
       <c r="C57" s="67"/>
@@ -2924,7 +2947,7 @@
       <c r="V57" s="67"/>
       <c r="W57" s="68"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="67"/>
       <c r="B58" s="67"/>
       <c r="C58" s="67"/>
@@ -2949,7 +2972,7 @@
       <c r="V58" s="67"/>
       <c r="W58" s="68"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="67"/>
       <c r="B59" s="67"/>
       <c r="C59" s="67"/>
@@ -2974,7 +2997,7 @@
       <c r="V59" s="67"/>
       <c r="W59" s="68"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="67"/>
       <c r="B60" s="67"/>
       <c r="C60" s="67"/>
@@ -2999,7 +3022,7 @@
       <c r="V60" s="67"/>
       <c r="W60" s="68"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="67"/>
       <c r="B61" s="67"/>
       <c r="C61" s="67"/>
@@ -3024,7 +3047,7 @@
       <c r="V61" s="67"/>
       <c r="W61" s="68"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="67"/>
       <c r="B62" s="67"/>
       <c r="C62" s="67"/>
@@ -3049,7 +3072,7 @@
       <c r="V62" s="67"/>
       <c r="W62" s="68"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
       <c r="B63" s="67"/>
       <c r="C63" s="67"/>
@@ -3074,7 +3097,7 @@
       <c r="V63" s="67"/>
       <c r="W63" s="68"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
       <c r="B64" s="67"/>
       <c r="C64" s="67"/>
@@ -3099,7 +3122,7 @@
       <c r="V64" s="67"/>
       <c r="W64" s="68"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="67"/>
       <c r="B65" s="67"/>
       <c r="C65" s="67"/>
@@ -3124,7 +3147,7 @@
       <c r="V65" s="67"/>
       <c r="W65" s="68"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="67"/>
       <c r="B66" s="67"/>
       <c r="C66" s="67"/>
@@ -3149,7 +3172,7 @@
       <c r="V66" s="67"/>
       <c r="W66" s="68"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="67"/>
       <c r="B67" s="67"/>
       <c r="C67" s="67"/>
@@ -3174,7 +3197,7 @@
       <c r="V67" s="67"/>
       <c r="W67" s="68"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="67"/>
       <c r="B68" s="67"/>
       <c r="C68" s="67"/>
@@ -3199,7 +3222,7 @@
       <c r="V68" s="67"/>
       <c r="W68" s="68"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
       <c r="B69" s="67"/>
       <c r="C69" s="67"/>
@@ -3224,7 +3247,7 @@
       <c r="V69" s="67"/>
       <c r="W69" s="68"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="67"/>
       <c r="B70" s="67"/>
       <c r="C70" s="67"/>
@@ -3249,7 +3272,7 @@
       <c r="V70" s="67"/>
       <c r="W70" s="68"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="67"/>
       <c r="B71" s="67"/>
       <c r="C71" s="67"/>
@@ -3274,7 +3297,7 @@
       <c r="V71" s="67"/>
       <c r="W71" s="68"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="67"/>
       <c r="B72" s="67"/>
       <c r="C72" s="67"/>
@@ -3299,7 +3322,7 @@
       <c r="V72" s="67"/>
       <c r="W72" s="68"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="67"/>
       <c r="B73" s="67"/>
       <c r="C73" s="67"/>
@@ -3324,7 +3347,7 @@
       <c r="V73" s="67"/>
       <c r="W73" s="68"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
       <c r="B74" s="67"/>
       <c r="C74" s="67"/>
@@ -3349,7 +3372,7 @@
       <c r="V74" s="67"/>
       <c r="W74" s="68"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="67"/>
       <c r="B75" s="67"/>
       <c r="C75" s="67"/>
@@ -3374,7 +3397,7 @@
       <c r="V75" s="67"/>
       <c r="W75" s="68"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
       <c r="B76" s="67"/>
       <c r="C76" s="67"/>
@@ -3399,7 +3422,7 @@
       <c r="V76" s="67"/>
       <c r="W76" s="68"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
       <c r="B77" s="67"/>
       <c r="C77" s="67"/>
@@ -3424,7 +3447,7 @@
       <c r="V77" s="67"/>
       <c r="W77" s="68"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
       <c r="B78" s="67"/>
       <c r="C78" s="67"/>
@@ -3449,7 +3472,7 @@
       <c r="V78" s="67"/>
       <c r="W78" s="68"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="67"/>
       <c r="B79" s="67"/>
       <c r="C79" s="67"/>
@@ -3474,7 +3497,7 @@
       <c r="V79" s="67"/>
       <c r="W79" s="68"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="67"/>
       <c r="B80" s="67"/>
       <c r="C80" s="67"/>
@@ -3499,7 +3522,7 @@
       <c r="V80" s="67"/>
       <c r="W80" s="68"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="67"/>
       <c r="B81" s="67"/>
       <c r="C81" s="67"/>
@@ -3524,7 +3547,7 @@
       <c r="V81" s="67"/>
       <c r="W81" s="68"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="67"/>
       <c r="B82" s="67"/>
       <c r="C82" s="67"/>
@@ -3549,7 +3572,7 @@
       <c r="V82" s="67"/>
       <c r="W82" s="68"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="67"/>
       <c r="B83" s="67"/>
       <c r="C83" s="67"/>
@@ -3574,7 +3597,7 @@
       <c r="V83" s="67"/>
       <c r="W83" s="68"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="67"/>
       <c r="B84" s="67"/>
       <c r="C84" s="67"/>
@@ -3599,7 +3622,7 @@
       <c r="V84" s="67"/>
       <c r="W84" s="68"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="67"/>
       <c r="B85" s="67"/>
       <c r="C85" s="67"/>
@@ -3624,7 +3647,7 @@
       <c r="V85" s="67"/>
       <c r="W85" s="68"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="67"/>
       <c r="B86" s="67"/>
       <c r="C86" s="67"/>
@@ -3649,7 +3672,7 @@
       <c r="V86" s="67"/>
       <c r="W86" s="68"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="67"/>
       <c r="B87" s="67"/>
       <c r="C87" s="67"/>
@@ -3674,7 +3697,7 @@
       <c r="V87" s="67"/>
       <c r="W87" s="68"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="67"/>
       <c r="B88" s="67"/>
       <c r="C88" s="67"/>
@@ -3699,7 +3722,7 @@
       <c r="V88" s="67"/>
       <c r="W88" s="68"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="67"/>
       <c r="B89" s="67"/>
       <c r="C89" s="67"/>
@@ -3724,7 +3747,7 @@
       <c r="V89" s="67"/>
       <c r="W89" s="68"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="67"/>
       <c r="B90" s="67"/>
       <c r="C90" s="67"/>
@@ -3749,7 +3772,7 @@
       <c r="V90" s="67"/>
       <c r="W90" s="68"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="67"/>
       <c r="B91" s="67"/>
       <c r="C91" s="67"/>
@@ -3774,7 +3797,7 @@
       <c r="V91" s="67"/>
       <c r="W91" s="68"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="67"/>
       <c r="B92" s="67"/>
       <c r="C92" s="67"/>
@@ -3799,7 +3822,7 @@
       <c r="V92" s="67"/>
       <c r="W92" s="68"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="67"/>
       <c r="B93" s="67"/>
       <c r="C93" s="67"/>
@@ -3824,7 +3847,7 @@
       <c r="V93" s="67"/>
       <c r="W93" s="68"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="67"/>
       <c r="B94" s="67"/>
       <c r="C94" s="67"/>
@@ -3849,7 +3872,7 @@
       <c r="V94" s="67"/>
       <c r="W94" s="68"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="67"/>
       <c r="B95" s="67"/>
       <c r="C95" s="67"/>
@@ -3874,7 +3897,7 @@
       <c r="V95" s="67"/>
       <c r="W95" s="68"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="67"/>
       <c r="B96" s="67"/>
       <c r="C96" s="67"/>
@@ -3899,7 +3922,7 @@
       <c r="V96" s="67"/>
       <c r="W96" s="68"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="67"/>
       <c r="B97" s="67"/>
       <c r="C97" s="67"/>
@@ -3924,7 +3947,7 @@
       <c r="V97" s="67"/>
       <c r="W97" s="68"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="67"/>
       <c r="B98" s="67"/>
       <c r="C98" s="67"/>
@@ -3949,7 +3972,7 @@
       <c r="V98" s="67"/>
       <c r="W98" s="68"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="67"/>
       <c r="B99" s="67"/>
       <c r="C99" s="67"/>
@@ -3974,7 +3997,7 @@
       <c r="V99" s="67"/>
       <c r="W99" s="68"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="67"/>
       <c r="B100" s="67"/>
       <c r="C100" s="67"/>
@@ -3999,7 +4022,7 @@
       <c r="V100" s="67"/>
       <c r="W100" s="68"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="67"/>
       <c r="B101" s="67"/>
       <c r="C101" s="67"/>
@@ -4024,7 +4047,7 @@
       <c r="V101" s="67"/>
       <c r="W101" s="68"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="67"/>
       <c r="B102" s="67"/>
       <c r="C102" s="67"/>
@@ -4049,7 +4072,7 @@
       <c r="V102" s="67"/>
       <c r="W102" s="68"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="67"/>
       <c r="B103" s="67"/>
       <c r="C103" s="67"/>
@@ -4074,7 +4097,7 @@
       <c r="V103" s="67"/>
       <c r="W103" s="68"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="67"/>
       <c r="B104" s="67"/>
       <c r="C104" s="67"/>
@@ -4099,7 +4122,7 @@
       <c r="V104" s="67"/>
       <c r="W104" s="68"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="67"/>
       <c r="B105" s="67"/>
       <c r="C105" s="67"/>
@@ -4124,7 +4147,7 @@
       <c r="V105" s="67"/>
       <c r="W105" s="68"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="67"/>
       <c r="B106" s="67"/>
       <c r="C106" s="67"/>
@@ -4149,7 +4172,7 @@
       <c r="V106" s="67"/>
       <c r="W106" s="68"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="67"/>
       <c r="B107" s="67"/>
       <c r="C107" s="67"/>
@@ -4174,7 +4197,7 @@
       <c r="V107" s="67"/>
       <c r="W107" s="68"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="67"/>
       <c r="B108" s="67"/>
       <c r="C108" s="67"/>
@@ -4199,7 +4222,7 @@
       <c r="V108" s="67"/>
       <c r="W108" s="68"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="67"/>
       <c r="B109" s="67"/>
       <c r="C109" s="67"/>
@@ -4224,7 +4247,7 @@
       <c r="V109" s="67"/>
       <c r="W109" s="68"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="67"/>
       <c r="B110" s="67"/>
       <c r="C110" s="67"/>
@@ -4249,7 +4272,7 @@
       <c r="V110" s="67"/>
       <c r="W110" s="68"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="67"/>
       <c r="B111" s="67"/>
       <c r="C111" s="67"/>
@@ -4274,7 +4297,7 @@
       <c r="V111" s="67"/>
       <c r="W111" s="68"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="67"/>
       <c r="B112" s="67"/>
       <c r="C112" s="67"/>
@@ -4299,7 +4322,7 @@
       <c r="V112" s="67"/>
       <c r="W112" s="68"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="67"/>
       <c r="B113" s="67"/>
       <c r="C113" s="67"/>
@@ -4324,7 +4347,7 @@
       <c r="V113" s="67"/>
       <c r="W113" s="68"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="67"/>
       <c r="B114" s="67"/>
       <c r="C114" s="67"/>
@@ -4349,7 +4372,7 @@
       <c r="V114" s="67"/>
       <c r="W114" s="68"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="67"/>
       <c r="B115" s="67"/>
       <c r="C115" s="67"/>
@@ -4374,7 +4397,7 @@
       <c r="V115" s="67"/>
       <c r="W115" s="68"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="67"/>
       <c r="B116" s="67"/>
       <c r="C116" s="67"/>
@@ -4399,7 +4422,7 @@
       <c r="V116" s="67"/>
       <c r="W116" s="68"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="67"/>
       <c r="B117" s="67"/>
       <c r="C117" s="67"/>
@@ -4424,7 +4447,7 @@
       <c r="V117" s="67"/>
       <c r="W117" s="68"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="67"/>
       <c r="B118" s="67"/>
       <c r="C118" s="67"/>
@@ -4449,7 +4472,7 @@
       <c r="V118" s="67"/>
       <c r="W118" s="68"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="67"/>
       <c r="B119" s="67"/>
       <c r="C119" s="67"/>
@@ -4474,7 +4497,7 @@
       <c r="V119" s="67"/>
       <c r="W119" s="68"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="67"/>
       <c r="B120" s="67"/>
       <c r="C120" s="67"/>
@@ -4499,7 +4522,7 @@
       <c r="V120" s="67"/>
       <c r="W120" s="68"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="67"/>
       <c r="B121" s="67"/>
       <c r="C121" s="67"/>
@@ -4524,7 +4547,7 @@
       <c r="V121" s="67"/>
       <c r="W121" s="68"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="67"/>
       <c r="B122" s="67"/>
       <c r="C122" s="67"/>
@@ -4549,7 +4572,7 @@
       <c r="V122" s="67"/>
       <c r="W122" s="68"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="67"/>
       <c r="B123" s="67"/>
       <c r="C123" s="67"/>
@@ -4574,7 +4597,7 @@
       <c r="V123" s="67"/>
       <c r="W123" s="68"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="67"/>
       <c r="B124" s="67"/>
       <c r="C124" s="67"/>
@@ -4599,7 +4622,7 @@
       <c r="V124" s="67"/>
       <c r="W124" s="68"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="67"/>
       <c r="B125" s="67"/>
       <c r="C125" s="67"/>
@@ -4624,7 +4647,7 @@
       <c r="V125" s="67"/>
       <c r="W125" s="68"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="67"/>
       <c r="B126" s="67"/>
       <c r="C126" s="67"/>
@@ -4649,7 +4672,7 @@
       <c r="V126" s="67"/>
       <c r="W126" s="68"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="67"/>
       <c r="B127" s="67"/>
       <c r="C127" s="67"/>
@@ -4674,7 +4697,7 @@
       <c r="V127" s="67"/>
       <c r="W127" s="68"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="67"/>
       <c r="B128" s="67"/>
       <c r="C128" s="67"/>
@@ -4699,7 +4722,7 @@
       <c r="V128" s="67"/>
       <c r="W128" s="68"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="67"/>
       <c r="B129" s="67"/>
       <c r="C129" s="67"/>
@@ -4724,7 +4747,7 @@
       <c r="V129" s="67"/>
       <c r="W129" s="68"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="67"/>
       <c r="B130" s="67"/>
       <c r="C130" s="67"/>
@@ -4749,7 +4772,7 @@
       <c r="V130" s="67"/>
       <c r="W130" s="68"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="67"/>
       <c r="B131" s="67"/>
       <c r="C131" s="67"/>
@@ -4774,7 +4797,7 @@
       <c r="V131" s="67"/>
       <c r="W131" s="68"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="67"/>
       <c r="B132" s="67"/>
       <c r="C132" s="67"/>
@@ -4799,7 +4822,7 @@
       <c r="V132" s="67"/>
       <c r="W132" s="68"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="67"/>
       <c r="B133" s="67"/>
       <c r="C133" s="67"/>
@@ -4824,7 +4847,7 @@
       <c r="V133" s="67"/>
       <c r="W133" s="68"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="67"/>
       <c r="B134" s="67"/>
       <c r="C134" s="67"/>
@@ -4849,7 +4872,7 @@
       <c r="V134" s="67"/>
       <c r="W134" s="68"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="67"/>
       <c r="B135" s="67"/>
       <c r="C135" s="67"/>
@@ -4874,7 +4897,7 @@
       <c r="V135" s="67"/>
       <c r="W135" s="68"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="67"/>
       <c r="B136" s="67"/>
       <c r="C136" s="67"/>
@@ -4895,7 +4918,7 @@
       <c r="R136" s="68"/>
       <c r="W136" s="68"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="67"/>
       <c r="B137" s="67"/>
       <c r="C137" s="67"/>
@@ -4916,7 +4939,7 @@
       <c r="R137" s="68"/>
       <c r="W137" s="68"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="67"/>
       <c r="B138" s="67"/>
       <c r="C138" s="67"/>
@@ -4937,7 +4960,7 @@
       <c r="R138" s="68"/>
       <c r="W138" s="68"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="67"/>
       <c r="B139" s="67"/>
       <c r="C139" s="67"/>
@@ -4958,7 +4981,7 @@
       <c r="R139" s="68"/>
       <c r="W139" s="68"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
       <c r="C140" s="67"/>
@@ -4979,7 +5002,7 @@
       <c r="R140" s="68"/>
       <c r="W140" s="68"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="67"/>
       <c r="B141" s="67"/>
       <c r="C141" s="67"/>
@@ -5000,7 +5023,7 @@
       <c r="R141" s="68"/>
       <c r="W141" s="68"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="67"/>
       <c r="B142" s="67"/>
       <c r="C142" s="67"/>
@@ -5021,7 +5044,7 @@
       <c r="R142" s="68"/>
       <c r="W142" s="68"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="67"/>
       <c r="B143" s="67"/>
       <c r="C143" s="67"/>
@@ -5042,7 +5065,7 @@
       <c r="R143" s="68"/>
       <c r="W143" s="68"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="67"/>
       <c r="B144" s="67"/>
       <c r="C144" s="67"/>
@@ -5063,7 +5086,7 @@
       <c r="R144" s="68"/>
       <c r="W144" s="68"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="67"/>
       <c r="B145" s="67"/>
       <c r="C145" s="67"/>
@@ -5084,7 +5107,7 @@
       <c r="R145" s="68"/>
       <c r="W145" s="68"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="67"/>
       <c r="B146" s="67"/>
       <c r="C146" s="67"/>
@@ -5105,7 +5128,7 @@
       <c r="R146" s="68"/>
       <c r="W146" s="68"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="67"/>
       <c r="B147" s="67"/>
       <c r="C147" s="67"/>
@@ -5126,7 +5149,7 @@
       <c r="R147" s="68"/>
       <c r="W147" s="68"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="67"/>
       <c r="B148" s="67"/>
       <c r="C148" s="67"/>
@@ -5147,7 +5170,7 @@
       <c r="R148" s="68"/>
       <c r="W148" s="68"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="67"/>
       <c r="B149" s="67"/>
       <c r="C149" s="67"/>
@@ -5168,7 +5191,7 @@
       <c r="R149" s="68"/>
       <c r="W149" s="68"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="67"/>
       <c r="B150" s="67"/>
       <c r="C150" s="67"/>
@@ -5189,7 +5212,7 @@
       <c r="R150" s="68"/>
       <c r="W150" s="68"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="67"/>
       <c r="B151" s="67"/>
       <c r="C151" s="67"/>
@@ -5210,7 +5233,7 @@
       <c r="R151" s="68"/>
       <c r="W151" s="68"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="67"/>
       <c r="B152" s="67"/>
       <c r="C152" s="67"/>
@@ -5231,7 +5254,7 @@
       <c r="R152" s="68"/>
       <c r="W152" s="68"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="67"/>
       <c r="B153" s="67"/>
       <c r="C153" s="67"/>
@@ -5252,7 +5275,7 @@
       <c r="R153" s="68"/>
       <c r="W153" s="68"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="67"/>
       <c r="B154" s="67"/>
       <c r="C154" s="67"/>
@@ -5273,7 +5296,7 @@
       <c r="R154" s="68"/>
       <c r="W154" s="68"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="67"/>
       <c r="B155" s="67"/>
       <c r="C155" s="67"/>
@@ -5294,7 +5317,7 @@
       <c r="R155" s="68"/>
       <c r="W155" s="68"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="67"/>
       <c r="B156" s="67"/>
       <c r="C156" s="67"/>
@@ -5315,7 +5338,7 @@
       <c r="R156" s="68"/>
       <c r="W156" s="68"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="67"/>
       <c r="B157" s="67"/>
       <c r="C157" s="67"/>
@@ -5336,7 +5359,7 @@
       <c r="R157" s="68"/>
       <c r="W157" s="68"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="67"/>
       <c r="B158" s="67"/>
       <c r="C158" s="67"/>
@@ -5357,7 +5380,7 @@
       <c r="R158" s="68"/>
       <c r="W158" s="68"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="67"/>
       <c r="B159" s="67"/>
       <c r="C159" s="67"/>
@@ -5378,7 +5401,7 @@
       <c r="R159" s="68"/>
       <c r="W159" s="68"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="67"/>
       <c r="B160" s="67"/>
       <c r="C160" s="67"/>
@@ -5399,7 +5422,7 @@
       <c r="R160" s="68"/>
       <c r="W160" s="68"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="67"/>
       <c r="B161" s="67"/>
       <c r="C161" s="67"/>
@@ -5420,7 +5443,7 @@
       <c r="R161" s="68"/>
       <c r="W161" s="68"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="67"/>
       <c r="B162" s="67"/>
       <c r="C162" s="67"/>
@@ -5441,7 +5464,7 @@
       <c r="R162" s="68"/>
       <c r="W162" s="68"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="67"/>
       <c r="B163" s="67"/>
       <c r="C163" s="67"/>
@@ -5462,7 +5485,7 @@
       <c r="R163" s="68"/>
       <c r="W163" s="68"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="67"/>
       <c r="B164" s="67"/>
       <c r="C164" s="67"/>
@@ -5483,7 +5506,7 @@
       <c r="R164" s="68"/>
       <c r="W164" s="68"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="67"/>
       <c r="B165" s="67"/>
       <c r="C165" s="67"/>
@@ -5504,7 +5527,7 @@
       <c r="R165" s="68"/>
       <c r="W165" s="68"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="67"/>
       <c r="B166" s="67"/>
       <c r="C166" s="67"/>
@@ -5525,7 +5548,7 @@
       <c r="R166" s="68"/>
       <c r="W166" s="68"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="67"/>
       <c r="B167" s="67"/>
       <c r="C167" s="67"/>
@@ -5546,7 +5569,7 @@
       <c r="R167" s="68"/>
       <c r="W167" s="68"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="67"/>
       <c r="B168" s="67"/>
       <c r="C168" s="67"/>
@@ -5567,7 +5590,7 @@
       <c r="R168" s="68"/>
       <c r="W168" s="68"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="67"/>
       <c r="B169" s="67"/>
       <c r="C169" s="67"/>
@@ -5588,7 +5611,7 @@
       <c r="R169" s="68"/>
       <c r="W169" s="68"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="67"/>
       <c r="B170" s="67"/>
       <c r="C170" s="67"/>
@@ -5653,27 +5676,27 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="54.88671875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>36</v>
       </c>
@@ -5729,7 +5752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="30" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="30" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5749,7 +5772,7 @@
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5769,7 +5792,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5803,19 +5826,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>52</v>
       </c>
@@ -5830,7 +5853,7 @@
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>53</v>
       </c>
@@ -5865,7 +5888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="20"/>
@@ -5878,7 +5901,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="91"/>
       <c r="C4" s="20"/>
@@ -5891,7 +5914,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="20"/>
@@ -5904,7 +5927,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="91"/>
       <c r="B6" s="91"/>
       <c r="C6" s="20"/>
@@ -5917,7 +5940,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="91"/>
       <c r="B7" s="91"/>
       <c r="C7" s="20"/>
@@ -5930,7 +5953,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="91"/>
       <c r="B8" s="91"/>
       <c r="C8" s="20"/>
@@ -5943,7 +5966,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="91"/>
       <c r="C9" s="20"/>
@@ -5956,7 +5979,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
       <c r="B10" s="90"/>
       <c r="C10" s="20"/>
@@ -5969,7 +5992,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6003,22 +6026,22 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>63</v>
       </c>
@@ -6035,7 +6058,7 @@
       <c r="L1" s="92"/>
       <c r="M1" s="93"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
@@ -6050,7 +6073,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -6091,7 +6114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6106,7 +6129,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6121,7 +6144,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6136,7 +6159,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6151,7 +6174,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6166,7 +6189,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6181,7 +6204,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6196,7 +6219,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6211,7 +6234,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6226,7 +6249,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6241,7 +6264,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6256,7 +6279,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6271,7 +6294,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6317,22 +6340,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>63</v>
       </c>
@@ -6349,7 +6372,7 @@
       <c r="L1" s="92"/>
       <c r="M1" s="93"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
@@ -6364,7 +6387,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -6405,7 +6428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6420,7 +6443,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6435,7 +6458,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6450,7 +6473,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6465,7 +6488,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6480,7 +6503,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6495,7 +6518,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6510,7 +6533,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6525,7 +6548,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6540,7 +6563,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6555,7 +6578,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6570,7 +6593,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6585,7 +6608,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6631,22 +6654,22 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>63</v>
       </c>
@@ -6663,7 +6686,7 @@
       <c r="L1" s="92"/>
       <c r="M1" s="93"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
@@ -6678,7 +6701,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -6719,7 +6742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6734,7 +6757,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6749,7 +6772,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6764,7 +6787,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6779,7 +6802,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6794,7 +6817,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6809,7 +6832,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6824,7 +6847,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6839,7 +6862,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6854,7 +6877,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6869,7 +6892,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6884,7 +6907,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6899,7 +6922,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6945,24 +6968,24 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>63</v>
       </c>
@@ -6979,7 +7002,7 @@
       <c r="L1" s="92"/>
       <c r="M1" s="93"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
@@ -6994,7 +7017,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -7035,7 +7058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7050,7 +7073,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7065,7 +7088,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7080,7 +7103,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7095,7 +7118,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7110,7 +7133,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7125,7 +7148,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7140,7 +7163,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7155,7 +7178,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7170,7 +7193,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7185,7 +7208,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7200,7 +7223,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7215,7 +7238,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7261,18 +7284,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -7298,7 +7321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7308,7 +7331,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7318,7 +7341,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7328,7 +7351,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7338,7 +7361,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7348,7 +7371,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7358,7 +7381,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7368,7 +7391,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7378,7 +7401,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7388,7 +7411,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7398,7 +7421,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7408,7 +7431,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7418,7 +7441,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7428,7 +7451,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7438,7 +7461,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7448,7 +7471,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7458,7 +7481,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7468,7 +7491,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
